--- a/drive links.xlsx
+++ b/drive links.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="315">
   <si>
     <t>https://drive.google.com/drive/folders/1oV-qfNcAfP5WEQCiXlzBzbdhoTHAreQw?usp=sharing</t>
   </si>
@@ -1100,7 +1100,50 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1376,1727 +1419,2710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D347"/>
+  <dimension ref="A1:E347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B348" sqref="B348"/>
+    <sheetView tabSelected="1" topLeftCell="B135" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E35" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E36" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E42" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E44" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E45" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E46" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E47" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E48" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D49" s="17"/>
+      <c r="E49" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E50" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E51" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E52" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E53" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E54" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E55" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E56" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E57" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E58" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E59" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E60" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E61" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E62" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E63" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E64" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E65" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E66" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E67" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E68" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E69" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E70" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E71" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E72" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E73" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E74" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E75" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E76" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E77" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E78" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E79" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E80" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E81" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E82" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E83" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E84" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E85" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E86" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E87" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E88" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E90" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E91" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E92" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E93" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E94" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E95" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E96" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E97" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E98" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E99" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E100" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E101" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E102" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E103" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E104" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E105" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E106" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E108" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E112" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E114" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E115" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E116" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E117" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E118" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E119" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E120" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E121" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E122" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E124" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E125" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E126" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E127" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E128" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E129" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E130" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E131" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E132" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E133" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E134" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E135" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E136" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E137" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E138" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E139" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E140" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E141" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E142" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E143" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E144" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E145" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E146" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E147" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E148" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E149" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E150" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E151" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E152" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E153" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E154" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E155" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E156" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E157" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E158" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E159" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E160" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E161" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E162" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E163" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E164" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E165" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E166" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E167" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E168" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E170" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E171" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E172" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E173" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E174" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E175" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E176" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E177" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E178" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E179" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E180" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E181" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E182" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E183" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E184" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E185" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E186" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E187" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E188" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E189" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E190" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E191" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E192" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E193" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E194" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E195" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E196" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E197" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E198" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E199" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E200" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E201" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E202" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E203" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E204" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E205" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E206" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E207" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E208" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E209" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E210" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E211" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E212" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E213" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E214" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E215" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E216" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E217" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E218" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E219" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E220" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E221" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E222" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E223" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E224" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E225" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E226" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E227" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E228" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E229" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E230" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E231" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E232" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E233" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E234" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E235" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E236" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E237" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E238" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E239" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E240" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E241" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E242" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E243" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E244" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E251" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E252" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E253" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E254" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E255" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E256" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E260" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E261" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E263" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E264" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E265" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E266" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E267" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E268" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E269" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E270" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E271" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E272" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E273" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E274" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E276" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E277" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E278" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E279" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E280" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E281" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E282" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E283" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E284" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E285" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E286" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E287" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E288" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E289" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E290" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E291" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="16" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E292" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E293" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E294" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E295" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E296" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E297" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E298" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E299" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E300" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E301" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E302" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E303" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E304" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E305" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E306" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E307" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E308" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E309" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E310" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E311" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E312" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E313" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E314" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E315" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E316"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E317"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E318"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E319"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E320"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E321"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E322"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E323"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E324"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E325"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E326"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E327"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E328"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E329"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E330"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E331"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E332"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E333"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E334"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E335"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>311</v>
       </c>
       <c r="D338" s="17"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="18"/>
+      <c r="E347" s="18"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A341">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E315">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E341">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
@@ -3439,8 +4465,323 @@
     <hyperlink ref="A339" r:id="rId339"/>
     <hyperlink ref="A340" r:id="rId340"/>
     <hyperlink ref="A341" r:id="rId341"/>
+    <hyperlink ref="E1" r:id="rId342"/>
+    <hyperlink ref="E2" r:id="rId343"/>
+    <hyperlink ref="E3" r:id="rId344"/>
+    <hyperlink ref="E4" r:id="rId345"/>
+    <hyperlink ref="E5" r:id="rId346"/>
+    <hyperlink ref="E6" r:id="rId347"/>
+    <hyperlink ref="E7" r:id="rId348"/>
+    <hyperlink ref="E8" r:id="rId349"/>
+    <hyperlink ref="E9" r:id="rId350"/>
+    <hyperlink ref="E10" r:id="rId351"/>
+    <hyperlink ref="E11" r:id="rId352"/>
+    <hyperlink ref="E12" r:id="rId353"/>
+    <hyperlink ref="E13" r:id="rId354"/>
+    <hyperlink ref="E14" r:id="rId355"/>
+    <hyperlink ref="E15" r:id="rId356"/>
+    <hyperlink ref="E16" r:id="rId357"/>
+    <hyperlink ref="E17" r:id="rId358"/>
+    <hyperlink ref="E18" r:id="rId359"/>
+    <hyperlink ref="E19" r:id="rId360"/>
+    <hyperlink ref="E20" r:id="rId361"/>
+    <hyperlink ref="E21" r:id="rId362"/>
+    <hyperlink ref="E22" r:id="rId363"/>
+    <hyperlink ref="E23" r:id="rId364"/>
+    <hyperlink ref="E24" r:id="rId365"/>
+    <hyperlink ref="E25" r:id="rId366"/>
+    <hyperlink ref="E26" r:id="rId367"/>
+    <hyperlink ref="E27" r:id="rId368"/>
+    <hyperlink ref="E28" r:id="rId369"/>
+    <hyperlink ref="E29" r:id="rId370"/>
+    <hyperlink ref="E30" r:id="rId371"/>
+    <hyperlink ref="E31" r:id="rId372"/>
+    <hyperlink ref="E32" r:id="rId373"/>
+    <hyperlink ref="E33" r:id="rId374"/>
+    <hyperlink ref="E34" r:id="rId375"/>
+    <hyperlink ref="E35" r:id="rId376"/>
+    <hyperlink ref="E36" r:id="rId377"/>
+    <hyperlink ref="E37" r:id="rId378"/>
+    <hyperlink ref="E38" r:id="rId379"/>
+    <hyperlink ref="E39" r:id="rId380"/>
+    <hyperlink ref="E40" r:id="rId381"/>
+    <hyperlink ref="E41" r:id="rId382"/>
+    <hyperlink ref="E42" r:id="rId383"/>
+    <hyperlink ref="E43" r:id="rId384"/>
+    <hyperlink ref="E44" r:id="rId385"/>
+    <hyperlink ref="E45" r:id="rId386"/>
+    <hyperlink ref="E46" r:id="rId387"/>
+    <hyperlink ref="E47" r:id="rId388"/>
+    <hyperlink ref="E48" r:id="rId389"/>
+    <hyperlink ref="E49" r:id="rId390"/>
+    <hyperlink ref="E50" r:id="rId391"/>
+    <hyperlink ref="E51" r:id="rId392"/>
+    <hyperlink ref="E52" r:id="rId393"/>
+    <hyperlink ref="E53" r:id="rId394"/>
+    <hyperlink ref="E54" r:id="rId395"/>
+    <hyperlink ref="E55" r:id="rId396"/>
+    <hyperlink ref="E56" r:id="rId397"/>
+    <hyperlink ref="E57" r:id="rId398"/>
+    <hyperlink ref="E58" r:id="rId399"/>
+    <hyperlink ref="E59" r:id="rId400"/>
+    <hyperlink ref="E60" r:id="rId401"/>
+    <hyperlink ref="E61" r:id="rId402"/>
+    <hyperlink ref="E62" r:id="rId403"/>
+    <hyperlink ref="E63" r:id="rId404"/>
+    <hyperlink ref="E64" r:id="rId405"/>
+    <hyperlink ref="E65" r:id="rId406"/>
+    <hyperlink ref="E66" r:id="rId407"/>
+    <hyperlink ref="E67" r:id="rId408"/>
+    <hyperlink ref="E68" r:id="rId409"/>
+    <hyperlink ref="E69" r:id="rId410"/>
+    <hyperlink ref="E70" r:id="rId411"/>
+    <hyperlink ref="E71" r:id="rId412"/>
+    <hyperlink ref="E72" r:id="rId413"/>
+    <hyperlink ref="E73" r:id="rId414"/>
+    <hyperlink ref="E74" r:id="rId415"/>
+    <hyperlink ref="E75" r:id="rId416"/>
+    <hyperlink ref="E76" r:id="rId417"/>
+    <hyperlink ref="E77" r:id="rId418"/>
+    <hyperlink ref="E78" r:id="rId419"/>
+    <hyperlink ref="E79" r:id="rId420"/>
+    <hyperlink ref="E80" r:id="rId421"/>
+    <hyperlink ref="E81" r:id="rId422"/>
+    <hyperlink ref="E82" r:id="rId423"/>
+    <hyperlink ref="E83" r:id="rId424"/>
+    <hyperlink ref="E84" r:id="rId425"/>
+    <hyperlink ref="E85" r:id="rId426"/>
+    <hyperlink ref="E86" r:id="rId427"/>
+    <hyperlink ref="E87" r:id="rId428"/>
+    <hyperlink ref="E88" r:id="rId429"/>
+    <hyperlink ref="E89" r:id="rId430"/>
+    <hyperlink ref="E90" r:id="rId431"/>
+    <hyperlink ref="E91" r:id="rId432"/>
+    <hyperlink ref="E92" r:id="rId433"/>
+    <hyperlink ref="E93" r:id="rId434"/>
+    <hyperlink ref="E94" r:id="rId435"/>
+    <hyperlink ref="E95" r:id="rId436"/>
+    <hyperlink ref="E96" r:id="rId437"/>
+    <hyperlink ref="E97" r:id="rId438"/>
+    <hyperlink ref="E98" r:id="rId439"/>
+    <hyperlink ref="E99" r:id="rId440"/>
+    <hyperlink ref="E100" r:id="rId441"/>
+    <hyperlink ref="E101" r:id="rId442"/>
+    <hyperlink ref="E102" r:id="rId443"/>
+    <hyperlink ref="E103" r:id="rId444"/>
+    <hyperlink ref="E104" r:id="rId445"/>
+    <hyperlink ref="E105" r:id="rId446"/>
+    <hyperlink ref="E106" r:id="rId447"/>
+    <hyperlink ref="E107" r:id="rId448"/>
+    <hyperlink ref="E108" r:id="rId449"/>
+    <hyperlink ref="E109" r:id="rId450"/>
+    <hyperlink ref="E110" r:id="rId451"/>
+    <hyperlink ref="E111" r:id="rId452"/>
+    <hyperlink ref="E112" r:id="rId453"/>
+    <hyperlink ref="E113" r:id="rId454"/>
+    <hyperlink ref="E114" r:id="rId455"/>
+    <hyperlink ref="E115" r:id="rId456"/>
+    <hyperlink ref="E116" r:id="rId457"/>
+    <hyperlink ref="E117" r:id="rId458"/>
+    <hyperlink ref="E118" r:id="rId459"/>
+    <hyperlink ref="E119" r:id="rId460"/>
+    <hyperlink ref="E120" r:id="rId461"/>
+    <hyperlink ref="E121" r:id="rId462"/>
+    <hyperlink ref="E122" r:id="rId463"/>
+    <hyperlink ref="E123" r:id="rId464"/>
+    <hyperlink ref="E124" r:id="rId465"/>
+    <hyperlink ref="E125" r:id="rId466"/>
+    <hyperlink ref="E126" r:id="rId467"/>
+    <hyperlink ref="E127" r:id="rId468"/>
+    <hyperlink ref="E128" r:id="rId469"/>
+    <hyperlink ref="E129" r:id="rId470"/>
+    <hyperlink ref="E130" r:id="rId471"/>
+    <hyperlink ref="E131" r:id="rId472"/>
+    <hyperlink ref="E132" r:id="rId473"/>
+    <hyperlink ref="E133" r:id="rId474"/>
+    <hyperlink ref="E134" r:id="rId475"/>
+    <hyperlink ref="E135" r:id="rId476"/>
+    <hyperlink ref="E136" r:id="rId477"/>
+    <hyperlink ref="E137" r:id="rId478"/>
+    <hyperlink ref="E138" r:id="rId479"/>
+    <hyperlink ref="E139" r:id="rId480"/>
+    <hyperlink ref="E140" r:id="rId481"/>
+    <hyperlink ref="E141" r:id="rId482"/>
+    <hyperlink ref="E142" r:id="rId483"/>
+    <hyperlink ref="E143" r:id="rId484"/>
+    <hyperlink ref="E144" r:id="rId485"/>
+    <hyperlink ref="E145" r:id="rId486"/>
+    <hyperlink ref="E146" r:id="rId487"/>
+    <hyperlink ref="E147" r:id="rId488"/>
+    <hyperlink ref="E148" r:id="rId489"/>
+    <hyperlink ref="E149" r:id="rId490"/>
+    <hyperlink ref="E150" r:id="rId491"/>
+    <hyperlink ref="E151" r:id="rId492"/>
+    <hyperlink ref="E152" r:id="rId493"/>
+    <hyperlink ref="E153" r:id="rId494"/>
+    <hyperlink ref="E154" r:id="rId495"/>
+    <hyperlink ref="E155" r:id="rId496"/>
+    <hyperlink ref="E156" r:id="rId497"/>
+    <hyperlink ref="E157" r:id="rId498"/>
+    <hyperlink ref="E158" r:id="rId499"/>
+    <hyperlink ref="E159" r:id="rId500"/>
+    <hyperlink ref="E160" r:id="rId501"/>
+    <hyperlink ref="E161" r:id="rId502"/>
+    <hyperlink ref="E162" r:id="rId503"/>
+    <hyperlink ref="E163" r:id="rId504"/>
+    <hyperlink ref="E164" r:id="rId505"/>
+    <hyperlink ref="E165" r:id="rId506"/>
+    <hyperlink ref="E166" r:id="rId507"/>
+    <hyperlink ref="E167" r:id="rId508"/>
+    <hyperlink ref="E168" r:id="rId509"/>
+    <hyperlink ref="E169" r:id="rId510"/>
+    <hyperlink ref="E170" r:id="rId511"/>
+    <hyperlink ref="E171" r:id="rId512"/>
+    <hyperlink ref="E172" r:id="rId513"/>
+    <hyperlink ref="E173" r:id="rId514"/>
+    <hyperlink ref="E174" r:id="rId515"/>
+    <hyperlink ref="E175" r:id="rId516"/>
+    <hyperlink ref="E176" r:id="rId517"/>
+    <hyperlink ref="E177" r:id="rId518"/>
+    <hyperlink ref="E178" r:id="rId519"/>
+    <hyperlink ref="E179" r:id="rId520"/>
+    <hyperlink ref="E180" r:id="rId521"/>
+    <hyperlink ref="E181" r:id="rId522"/>
+    <hyperlink ref="E182" r:id="rId523"/>
+    <hyperlink ref="E183" r:id="rId524"/>
+    <hyperlink ref="E184" r:id="rId525"/>
+    <hyperlink ref="E185" r:id="rId526"/>
+    <hyperlink ref="E186" r:id="rId527"/>
+    <hyperlink ref="E187" r:id="rId528"/>
+    <hyperlink ref="E188" r:id="rId529"/>
+    <hyperlink ref="E189" r:id="rId530"/>
+    <hyperlink ref="E190" r:id="rId531"/>
+    <hyperlink ref="E191" r:id="rId532"/>
+    <hyperlink ref="E192" r:id="rId533"/>
+    <hyperlink ref="E193" r:id="rId534"/>
+    <hyperlink ref="E194" r:id="rId535"/>
+    <hyperlink ref="E195" r:id="rId536"/>
+    <hyperlink ref="E196" r:id="rId537"/>
+    <hyperlink ref="E197" r:id="rId538"/>
+    <hyperlink ref="E198" r:id="rId539"/>
+    <hyperlink ref="E199" r:id="rId540"/>
+    <hyperlink ref="E200" r:id="rId541"/>
+    <hyperlink ref="E201" r:id="rId542"/>
+    <hyperlink ref="E202" r:id="rId543"/>
+    <hyperlink ref="E203" r:id="rId544"/>
+    <hyperlink ref="E204" r:id="rId545"/>
+    <hyperlink ref="E205" r:id="rId546"/>
+    <hyperlink ref="E206" r:id="rId547"/>
+    <hyperlink ref="E207" r:id="rId548"/>
+    <hyperlink ref="E208" r:id="rId549"/>
+    <hyperlink ref="E209" r:id="rId550"/>
+    <hyperlink ref="E210" r:id="rId551"/>
+    <hyperlink ref="E211" r:id="rId552"/>
+    <hyperlink ref="E212" r:id="rId553"/>
+    <hyperlink ref="E213" r:id="rId554"/>
+    <hyperlink ref="E214" r:id="rId555"/>
+    <hyperlink ref="E215" r:id="rId556"/>
+    <hyperlink ref="E216" r:id="rId557"/>
+    <hyperlink ref="E217" r:id="rId558"/>
+    <hyperlink ref="E218" r:id="rId559"/>
+    <hyperlink ref="E219" r:id="rId560"/>
+    <hyperlink ref="E220" r:id="rId561"/>
+    <hyperlink ref="E221" r:id="rId562"/>
+    <hyperlink ref="E222" r:id="rId563"/>
+    <hyperlink ref="E223" r:id="rId564"/>
+    <hyperlink ref="E224" r:id="rId565"/>
+    <hyperlink ref="E225" r:id="rId566"/>
+    <hyperlink ref="E226" r:id="rId567"/>
+    <hyperlink ref="E227" r:id="rId568"/>
+    <hyperlink ref="E228" r:id="rId569"/>
+    <hyperlink ref="E229" r:id="rId570"/>
+    <hyperlink ref="E230" r:id="rId571"/>
+    <hyperlink ref="E231" r:id="rId572"/>
+    <hyperlink ref="E232" r:id="rId573"/>
+    <hyperlink ref="E233" r:id="rId574"/>
+    <hyperlink ref="E234" r:id="rId575"/>
+    <hyperlink ref="E235" r:id="rId576"/>
+    <hyperlink ref="E236" r:id="rId577"/>
+    <hyperlink ref="E237" r:id="rId578"/>
+    <hyperlink ref="E238" r:id="rId579"/>
+    <hyperlink ref="E239" r:id="rId580"/>
+    <hyperlink ref="E240" r:id="rId581"/>
+    <hyperlink ref="E241" r:id="rId582"/>
+    <hyperlink ref="E242" r:id="rId583"/>
+    <hyperlink ref="E243" r:id="rId584"/>
+    <hyperlink ref="E244" r:id="rId585"/>
+    <hyperlink ref="E245" r:id="rId586"/>
+    <hyperlink ref="E246" r:id="rId587"/>
+    <hyperlink ref="E247" r:id="rId588"/>
+    <hyperlink ref="E248" r:id="rId589"/>
+    <hyperlink ref="E249" r:id="rId590"/>
+    <hyperlink ref="E250" r:id="rId591"/>
+    <hyperlink ref="E251" r:id="rId592"/>
+    <hyperlink ref="E252" r:id="rId593"/>
+    <hyperlink ref="E253" r:id="rId594"/>
+    <hyperlink ref="E254" r:id="rId595"/>
+    <hyperlink ref="E255" r:id="rId596"/>
+    <hyperlink ref="E256" r:id="rId597"/>
+    <hyperlink ref="E257" r:id="rId598"/>
+    <hyperlink ref="E258" r:id="rId599"/>
+    <hyperlink ref="E259" r:id="rId600"/>
+    <hyperlink ref="E260" r:id="rId601"/>
+    <hyperlink ref="E261" r:id="rId602"/>
+    <hyperlink ref="E262" r:id="rId603"/>
+    <hyperlink ref="E263" r:id="rId604"/>
+    <hyperlink ref="E264" r:id="rId605"/>
+    <hyperlink ref="E265" r:id="rId606"/>
+    <hyperlink ref="E266" r:id="rId607"/>
+    <hyperlink ref="E267" r:id="rId608"/>
+    <hyperlink ref="E268" r:id="rId609"/>
+    <hyperlink ref="E269" r:id="rId610"/>
+    <hyperlink ref="E270" r:id="rId611"/>
+    <hyperlink ref="E271" r:id="rId612"/>
+    <hyperlink ref="E272" r:id="rId613"/>
+    <hyperlink ref="E273" r:id="rId614"/>
+    <hyperlink ref="E274" r:id="rId615"/>
+    <hyperlink ref="E275" r:id="rId616"/>
+    <hyperlink ref="E276" r:id="rId617"/>
+    <hyperlink ref="E277" r:id="rId618"/>
+    <hyperlink ref="E278" r:id="rId619"/>
+    <hyperlink ref="E279" r:id="rId620"/>
+    <hyperlink ref="E280" r:id="rId621"/>
+    <hyperlink ref="E281" r:id="rId622"/>
+    <hyperlink ref="E282" r:id="rId623"/>
+    <hyperlink ref="E283" r:id="rId624"/>
+    <hyperlink ref="E284" r:id="rId625"/>
+    <hyperlink ref="E285" r:id="rId626"/>
+    <hyperlink ref="E286" r:id="rId627"/>
+    <hyperlink ref="E287" r:id="rId628"/>
+    <hyperlink ref="E288" r:id="rId629"/>
+    <hyperlink ref="E289" r:id="rId630"/>
+    <hyperlink ref="E290" r:id="rId631"/>
+    <hyperlink ref="E291" r:id="rId632"/>
+    <hyperlink ref="E292" r:id="rId633"/>
+    <hyperlink ref="E293" r:id="rId634"/>
+    <hyperlink ref="E294" r:id="rId635"/>
+    <hyperlink ref="E295" r:id="rId636"/>
+    <hyperlink ref="E296" r:id="rId637"/>
+    <hyperlink ref="E297" r:id="rId638"/>
+    <hyperlink ref="E298" r:id="rId639"/>
+    <hyperlink ref="E299" r:id="rId640"/>
+    <hyperlink ref="E300" r:id="rId641"/>
+    <hyperlink ref="E301" r:id="rId642"/>
+    <hyperlink ref="E302" r:id="rId643"/>
+    <hyperlink ref="E303" r:id="rId644"/>
+    <hyperlink ref="E304" r:id="rId645"/>
+    <hyperlink ref="E305" r:id="rId646"/>
+    <hyperlink ref="E306" r:id="rId647"/>
+    <hyperlink ref="E307" r:id="rId648"/>
+    <hyperlink ref="E308" r:id="rId649"/>
+    <hyperlink ref="E309" r:id="rId650"/>
+    <hyperlink ref="E310" r:id="rId651"/>
+    <hyperlink ref="E311" r:id="rId652"/>
+    <hyperlink ref="E312" r:id="rId653"/>
+    <hyperlink ref="E313" r:id="rId654"/>
+    <hyperlink ref="E314" r:id="rId655"/>
+    <hyperlink ref="E315" r:id="rId656"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId342"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId657"/>
 </worksheet>
 </file>